--- a/cig2019/Assets/streamingAssets/Xlsxs/3.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/3.xlsx
@@ -19,28 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>对话编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>病人文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生我肚子痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我要死了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,63 +57,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>不得行好痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别打了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那我去死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你就是搞我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那你先停手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没救了等死吧告辞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生我肚子痛_你给我看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不你_不痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那你_去死吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我打你_是治疗你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我_没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没救了_等死吧_告辞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死你1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死你2</t>
+  </si>
+  <si>
+    <t>打死你3</t>
+  </si>
+  <si>
     <t>我不是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选项1回复文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2回复文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不得行好痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别打了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那我去死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我不信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你就是搞我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那你先停手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你个龟孙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你个龟孙2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你个龟孙3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没救了等死吧告辞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
+    <t>我_不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打_死你个龟孙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死_你个龟孙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死你_个龟孙3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1病人文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2选项1提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3选项1文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4选项1回复文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5选项1影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6选项 2提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7选项2文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8选项2回复文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9选项1影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,164 +501,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/cig2019/Assets/streamingAssets/Xlsxs/3.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/3.xlsx
@@ -1,213 +1,494 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="20475" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>对话编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你别打我了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生你搞我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不你不痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那你去死吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1病人文本</t>
+  </si>
+  <si>
+    <t>2选项1提示</t>
+  </si>
+  <si>
+    <t>3选项1文本</t>
+  </si>
+  <si>
+    <t>4选项1回复文本</t>
+  </si>
+  <si>
+    <t>5选项1影响</t>
+  </si>
+  <si>
+    <t>6选项 2提示</t>
+  </si>
+  <si>
+    <t>7选项2文本</t>
+  </si>
+  <si>
+    <t>8选项2回复文本</t>
+  </si>
+  <si>
+    <t>9选项1影响</t>
+  </si>
+  <si>
+    <t>我很喜欢绘画，很想成为一名艺术生，但我的确资质平平，学习绘画很久也没有拿出过很得意的作品。_而最近我们要开始分科了，父母、老师都建议我报文科，但我真的很想学绘画。就因为这事儿，我已经和家里吵过好几次了。_医生，我真的很迷茫，为什么大人们总是不能理解我呢？</t>
+  </si>
+  <si>
+    <t>不后悔的选择（鼓励）</t>
+  </si>
+  <si>
+    <t>任何事情每个人都会有自己的看法和见解，不理解总是暂时的，最重要的是如何才让自己不后悔不是吗？_就像我当初想学心理学，家人也不支持我，说这都是玩虚的，现在我不是还是当了心理医生吗？</t>
+  </si>
+  <si>
+    <t>不过医生我感觉他们不支持我很大的原因是我没有天赋。</t>
+  </si>
+  <si>
+    <t>不理解（打击）</t>
+  </si>
+  <si>
+    <t>你还小，有些事情大人的想法那你可能理解不了，其实你心里也明白他们是为了你好吧？</t>
+  </si>
+  <si>
+    <t>我的确明白他们是为了我好，不过医生我感觉他们不支持我很大的原因是我没有天赋。</t>
+  </si>
+  <si>
+    <t>嗯....假如我更有天赋一点的话，事情应该会变得不一样吧？</t>
+  </si>
+  <si>
+    <t>勤练带来力量（鼓励）</t>
+  </si>
+  <si>
+    <t>或许会有一点不同，但天赋也不是全部，勤练才是关键嘛。</t>
+  </si>
+  <si>
+    <t>或许您说的对</t>
+  </si>
+  <si>
+    <t>尊重天赋（讽刺）</t>
+  </si>
+  <si>
+    <t>既然你清楚天赋的重要性为什么不尊重一下自己的天赋？</t>
+  </si>
+  <si>
+    <t>但是做自己不喜欢的事情真的快乐吗？有天赋并不代表着我一直都能做的好不是吗？</t>
+  </si>
+  <si>
+    <t>我仔细想了想，还是挣扎一下</t>
   </si>
   <si>
     <t>我打你是治疗你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不得行好痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别打了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那我去死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我不信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你就是搞我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那你先停手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没救了等死吧告辞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试一试总是好的，年轻人嘛，不要有那么大压力。</t>
+  </si>
+  <si>
+    <t>我会努力的。</t>
+  </si>
+  <si>
+    <t>讽刺</t>
+  </si>
+  <si>
+    <t>你这一挣扎，就不怕以后生活都在挣扎了吗？</t>
+  </si>
+  <si>
+    <t>虽然和医生您的见解不一样，不过</t>
+  </si>
+  <si>
+    <t>我感觉好多了，谢谢医生</t>
+  </si>
+  <si>
+    <t>治疗结束</t>
+  </si>
+  <si>
+    <t>今天治疗就到这里了，还有啥问题的话可以预约下周哈！</t>
+  </si>
+  <si>
+    <t>医生再见！</t>
   </si>
   <si>
     <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生我肚子痛_你给我看看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不你_不痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那你_去死吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我打你_是治疗你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我_没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没救了_等死吧_告辞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你2</t>
-  </si>
-  <si>
-    <t>打死你3</t>
-  </si>
-  <si>
-    <t>我不是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我_不是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打_死你个龟孙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死_你个龟孙2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你_个龟孙3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1病人文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2选项1提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3选项1文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4选项1回复文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5选项1影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6选项 2提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7选项2文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8选项2回复文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9选项1影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -215,24 +496,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -281,7 +848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -316,7 +883,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -490,216 +1057,182 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
       </c>
       <c r="J4">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/cig2019/Assets/streamingAssets/Xlsxs/3.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/3.xlsx
@@ -134,12 +134,118 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,21 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,7 +266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,83 +274,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -266,29 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,18 +296,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -327,163 +434,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,8 +492,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -517,21 +512,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,18 +535,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,148 +590,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,7 +1059,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1143,7 +1136,7 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1175,7 +1168,7 @@
         <v>23</v>
       </c>
       <c r="J3">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1207,7 +1200,7 @@
         <v>30</v>
       </c>
       <c r="J4">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
